--- a/pmsapp/transaction.xlsx
+++ b/pmsapp/transaction.xlsx
@@ -501,7 +501,7 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Portfolio Name : rojak portfolio</t>
+            <t xml:space="preserve">Portfolio Name : massive test</t>
           </r>
         </is>
       </c>
@@ -515,7 +515,7 @@
       <c r="J3" s="6" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Generated Date:09/01/21</t>
+            <t xml:space="preserve">Generated Date:18/01/21</t>
           </r>
         </is>
       </c>
@@ -621,14 +621,14 @@
       <c r="B6" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Tesla Corp.</t>
+            <t xml:space="preserve">Apple Inc.</t>
           </r>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">TSLA</t>
+            <t xml:space="preserve">AAPL</t>
           </r>
         </is>
       </c>
@@ -642,21 +642,21 @@
       <c r="E6" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">1000</t>
           </r>
         </is>
       </c>
       <c r="F6" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$633.51</t>
+            <t xml:space="preserve">USD$154.86</t>
           </r>
         </is>
       </c>
       <c r="G6" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$1267.02</t>
+            <t xml:space="preserve">USD$154860</t>
           </r>
         </is>
       </c>
@@ -678,14 +678,14 @@
       <c r="K6" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11/11/0020</t>
+            <t xml:space="preserve">01/01/2020</t>
           </r>
         </is>
       </c>
       <c r="L6" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing loading</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -697,42 +697,42 @@
       <c r="B7" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Amazon Inc.</t>
+            <t xml:space="preserve">Alibaba Group Holding Limited</t>
           </r>
         </is>
       </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">AMZN</t>
+            <t xml:space="preserve">9988.HK</t>
           </r>
         </is>
       </c>
       <c r="D7" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NASDAQ</t>
+            <t xml:space="preserve">HKEX</t>
           </r>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">2500</t>
           </r>
         </is>
       </c>
       <c r="F7" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$2942.42</t>
+            <t xml:space="preserve">HKD$255.88</t>
           </r>
         </is>
       </c>
       <c r="G7" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$14712.1</t>
+            <t xml:space="preserve">HKD$639700</t>
           </r>
         </is>
       </c>
@@ -754,14 +754,14 @@
       <c r="K7" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11/11/0020</t>
+            <t xml:space="preserve">01/01/2020</t>
           </r>
         </is>
       </c>
       <c r="L7" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing loading</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -794,21 +794,21 @@
       <c r="E8" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1000</t>
+            <t xml:space="preserve">30000</t>
           </r>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2.33</t>
+            <t xml:space="preserve">SGD$2.56</t>
           </r>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2330</t>
+            <t xml:space="preserve">SGD$76800</t>
           </r>
         </is>
       </c>
@@ -830,14 +830,14 @@
       <c r="K8" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09/11/2019</t>
+            <t xml:space="preserve">01/01/2020</t>
           </r>
         </is>
       </c>
       <c r="L8" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -870,28 +870,28 @@
       <c r="E9" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1000</t>
+            <t xml:space="preserve">30000</t>
           </r>
         </is>
       </c>
       <c r="F9" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2.2</t>
+            <t xml:space="preserve">SGD$2.56</t>
           </r>
         </is>
       </c>
       <c r="G9" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2200</t>
+            <t xml:space="preserve">SGD$76800</t>
           </r>
         </is>
       </c>
       <c r="H9" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
@@ -906,14 +906,14 @@
       <c r="K9" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09/11/2019</t>
+            <t xml:space="preserve">01/01/2020</t>
           </r>
         </is>
       </c>
       <c r="L9" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -925,49 +925,49 @@
       <c r="B10" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OCBC</t>
+            <t xml:space="preserve">Alibaba Group Holding Limited</t>
           </r>
         </is>
       </c>
       <c r="C10" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">O39.SI</t>
+            <t xml:space="preserve">9988.HK</t>
           </r>
         </is>
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGX</t>
+            <t xml:space="preserve">HKEX</t>
           </r>
         </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">500</t>
+            <t xml:space="preserve">2500</t>
           </r>
         </is>
       </c>
       <c r="F10" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$12</t>
+            <t xml:space="preserve">HKD$255.88</t>
           </r>
         </is>
       </c>
       <c r="G10" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$6000</t>
+            <t xml:space="preserve">HKD$639700</t>
           </r>
         </is>
       </c>
       <c r="H10" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
@@ -989,7 +989,7 @@
       <c r="L10" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1001,42 +1001,42 @@
       <c r="B11" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">OCBC</t>
+            <t xml:space="preserve">Apple Inc.</t>
           </r>
         </is>
       </c>
       <c r="C11" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">O39.SI</t>
+            <t xml:space="preserve">AAPL</t>
           </r>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGX</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
       <c r="E11" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">500</t>
+            <t xml:space="preserve">1000</t>
           </r>
         </is>
       </c>
       <c r="F11" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$10.09</t>
+            <t xml:space="preserve">USD$154.86</t>
           </r>
         </is>
       </c>
       <c r="G11" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$5045</t>
+            <t xml:space="preserve">USD$154860</t>
           </r>
         </is>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="L11" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1077,14 +1077,14 @@
       <c r="B12" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Ping An Insurance</t>
+            <t xml:space="preserve">Tencent Holdings Limited</t>
           </r>
         </is>
       </c>
       <c r="C12" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2318.HK</t>
+            <t xml:space="preserve">0700.HK</t>
           </r>
         </is>
       </c>
@@ -1098,21 +1098,21 @@
       <c r="E12" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">500</t>
+            <t xml:space="preserve">1000</t>
           </r>
         </is>
       </c>
       <c r="F12" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$79.81</t>
+            <t xml:space="preserve">HKD$515.67</t>
           </r>
         </is>
       </c>
       <c r="G12" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$39905</t>
+            <t xml:space="preserve">HKD$515670</t>
           </r>
         </is>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="I12" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">chooann</t>
+            <t xml:space="preserve">choonann</t>
           </r>
         </is>
       </c>
@@ -1134,14 +1134,14 @@
       <c r="K12" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">02/01/2020</t>
+            <t xml:space="preserve">02/02/2020</t>
           </r>
         </is>
       </c>
       <c r="L12" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1153,42 +1153,42 @@
       <c r="B13" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Visa</t>
+            <t xml:space="preserve">Facebook, Inc.</t>
           </r>
         </is>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">V</t>
+            <t xml:space="preserve">FB</t>
           </r>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NYSE</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
       <c r="E13" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">500</t>
           </r>
         </is>
       </c>
       <c r="F13" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$201.55</t>
+            <t xml:space="preserve">USD$267.59</t>
           </r>
         </is>
       </c>
       <c r="G13" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$2015.5</t>
+            <t xml:space="preserve">USD$133795</t>
           </r>
         </is>
       </c>
@@ -1210,14 +1210,14 @@
       <c r="K13" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28/02/2020</t>
+            <t xml:space="preserve">02/02/2020</t>
           </r>
         </is>
       </c>
       <c r="L13" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1229,42 +1229,42 @@
       <c r="B14" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Boeing Co.</t>
+            <t xml:space="preserve">CapitaLand Retail China Trust</t>
           </r>
         </is>
       </c>
       <c r="C14" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BA</t>
+            <t xml:space="preserve">AU8U.SI</t>
           </r>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NYSE</t>
+            <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
       <c r="E14" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
       <c r="F14" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$200</t>
+            <t xml:space="preserve">SGD$1.33</t>
           </r>
         </is>
       </c>
       <c r="G14" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$20000</t>
+            <t xml:space="preserve">SGD$26600</t>
           </r>
         </is>
       </c>
@@ -1286,14 +1286,14 @@
       <c r="K14" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">28/03/2020</t>
+            <t xml:space="preserve">02/02/2020</t>
           </r>
         </is>
       </c>
       <c r="L14" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1305,42 +1305,42 @@
       <c r="B15" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Tencent Holdings</t>
+            <t xml:space="preserve">CapitaLand Retail China Trust</t>
           </r>
         </is>
       </c>
       <c r="C15" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">0700.HK</t>
+            <t xml:space="preserve">AU8U.SI</t>
           </r>
         </is>
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKEX</t>
+            <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
       <c r="E15" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
       <c r="F15" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$515</t>
+            <t xml:space="preserve">SGD$1.33</t>
           </r>
         </is>
       </c>
       <c r="G15" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$51500</t>
+            <t xml:space="preserve">SGD$26600</t>
           </r>
         </is>
       </c>
@@ -1362,14 +1362,14 @@
       <c r="K15" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06/05/2020</t>
+            <t xml:space="preserve">02/02/2020</t>
           </r>
         </is>
       </c>
       <c r="L15" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1381,14 +1381,14 @@
       <c r="B16" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Xiaomi Corp.</t>
+            <t xml:space="preserve">Tencent Holdings Limited</t>
           </r>
         </is>
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1810.HK</t>
+            <t xml:space="preserve">0700.HK</t>
           </r>
         </is>
       </c>
@@ -1402,21 +1402,21 @@
       <c r="E16" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">340</t>
+            <t xml:space="preserve">1000</t>
           </r>
         </is>
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$23.51</t>
+            <t xml:space="preserve">HKD$515.67</t>
           </r>
         </is>
       </c>
       <c r="G16" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$7993.4</t>
+            <t xml:space="preserve">HKD$515670</t>
           </r>
         </is>
       </c>
@@ -1438,14 +1438,14 @@
       <c r="K16" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20/05/2020</t>
+            <t xml:space="preserve">02/02/2020</t>
           </r>
         </is>
       </c>
       <c r="L16" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1457,42 +1457,42 @@
       <c r="B17" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Bank of America</t>
+            <t xml:space="preserve">Facebook, Inc.</t>
           </r>
         </is>
       </c>
       <c r="C17" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BAC</t>
+            <t xml:space="preserve">FB</t>
           </r>
         </is>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NYSE</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
       <c r="E17" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">250</t>
+            <t xml:space="preserve">500</t>
           </r>
         </is>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$27.8</t>
+            <t xml:space="preserve">USD$267.59</t>
           </r>
         </is>
       </c>
       <c r="G17" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$6950</t>
+            <t xml:space="preserve">USD$133795</t>
           </r>
         </is>
       </c>
@@ -1514,14 +1514,14 @@
       <c r="K17" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">29/06/2020</t>
+            <t xml:space="preserve">02/02/2020</t>
           </r>
         </is>
       </c>
       <c r="L17" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1533,49 +1533,49 @@
       <c r="B18" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Keppel DC Reits</t>
+            <t xml:space="preserve">Ping An Insurance (Group) Company of China, Ltd.</t>
           </r>
         </is>
       </c>
       <c r="C18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">AJBU.SI</t>
+            <t xml:space="preserve">2318.HK</t>
           </r>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGX</t>
+            <t xml:space="preserve">HKEX</t>
           </r>
         </is>
       </c>
       <c r="E18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1000</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
       <c r="F18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2.74</t>
+            <t xml:space="preserve">HKD$78.9</t>
           </r>
         </is>
       </c>
       <c r="G18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2740</t>
+            <t xml:space="preserve">HKD$631200</t>
           </r>
         </is>
       </c>
       <c r="H18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
@@ -1590,14 +1590,14 @@
       <c r="K18" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10/10/2020</t>
+            <t xml:space="preserve">03/03/2020</t>
           </r>
         </is>
       </c>
       <c r="L18" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1609,14 +1609,14 @@
       <c r="B19" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Keppel DC Reits</t>
+            <t xml:space="preserve">Ascendas Real Estate Investment Trust</t>
           </r>
         </is>
       </c>
       <c r="C19" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">AJBU.SI</t>
+            <t xml:space="preserve">A17U.SI</t>
           </r>
         </is>
       </c>
@@ -1630,21 +1630,21 @@
       <c r="E19" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1000</t>
+            <t xml:space="preserve">30000</t>
           </r>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2.67</t>
+            <t xml:space="preserve">SGD$3.02</t>
           </r>
         </is>
       </c>
       <c r="G19" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$2670</t>
+            <t xml:space="preserve">SGD$90600</t>
           </r>
         </is>
       </c>
@@ -1666,14 +1666,14 @@
       <c r="K19" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10/10/2020</t>
+            <t xml:space="preserve">03/03/2020</t>
           </r>
         </is>
       </c>
       <c r="L19" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing only</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1685,14 +1685,14 @@
       <c r="B20" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Apple Inc.</t>
+            <t xml:space="preserve">Amazon.com, Inc.</t>
           </r>
         </is>
       </c>
       <c r="C20" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">AAPL</t>
+            <t xml:space="preserve">AMZN</t>
           </r>
         </is>
       </c>
@@ -1706,21 +1706,21 @@
       <c r="E20" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">50</t>
+            <t xml:space="preserve">100</t>
           </r>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$140</t>
+            <t xml:space="preserve">USD$2924.5</t>
           </r>
         </is>
       </c>
       <c r="G20" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$7000</t>
+            <t xml:space="preserve">USD$292450</t>
           </r>
         </is>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="I20" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testuser</t>
+            <t xml:space="preserve">choonann</t>
           </r>
         </is>
       </c>
@@ -1742,14 +1742,14 @@
       <c r="K20" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13/11/2020</t>
+            <t xml:space="preserve">03/03/2020</t>
           </r>
         </is>
       </c>
       <c r="L20" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing loading</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1761,14 +1761,14 @@
       <c r="B21" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Parkway Life REIT</t>
+            <t xml:space="preserve">Ascendas Real Estate Investment Trust</t>
           </r>
         </is>
       </c>
       <c r="C21" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">C2PU.SI</t>
+            <t xml:space="preserve">A17U.SI</t>
           </r>
         </is>
       </c>
@@ -1782,21 +1782,21 @@
       <c r="E21" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1000</t>
+            <t xml:space="preserve">30000</t>
           </r>
         </is>
       </c>
       <c r="F21" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$3</t>
+            <t xml:space="preserve">SGD$3.02</t>
           </r>
         </is>
       </c>
       <c r="G21" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$3000</t>
+            <t xml:space="preserve">SGD$90600</t>
           </r>
         </is>
       </c>
@@ -1818,14 +1818,14 @@
       <c r="K21" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">03/03/2020</t>
           </r>
         </is>
       </c>
       <c r="L21" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1837,14 +1837,14 @@
       <c r="B22" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Alphabet Inc.</t>
+            <t xml:space="preserve">Amazon.com, Inc.</t>
           </r>
         </is>
       </c>
       <c r="C22" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GOOG</t>
+            <t xml:space="preserve">AMZN</t>
           </r>
         </is>
       </c>
@@ -1858,21 +1858,21 @@
       <c r="E22" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">100</t>
           </r>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$1000</t>
+            <t xml:space="preserve">USD$2924.5</t>
           </r>
         </is>
       </c>
       <c r="G22" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$8000</t>
+            <t xml:space="preserve">USD$292450</t>
           </r>
         </is>
       </c>
@@ -1894,14 +1894,14 @@
       <c r="K22" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">03/03/2020</t>
           </r>
         </is>
       </c>
       <c r="L22" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1913,49 +1913,49 @@
       <c r="B23" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Alphabet Inc.</t>
+            <t xml:space="preserve">Ping An Insurance (Group) Company of China, Ltd.</t>
           </r>
         </is>
       </c>
       <c r="C23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GOOG</t>
+            <t xml:space="preserve">2318.HK</t>
           </r>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NASDAQ</t>
+            <t xml:space="preserve">HKEX</t>
           </r>
         </is>
       </c>
       <c r="E23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6</t>
+            <t xml:space="preserve">8000</t>
           </r>
         </is>
       </c>
       <c r="F23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$1500</t>
+            <t xml:space="preserve">HKD$78.9</t>
           </r>
         </is>
       </c>
       <c r="G23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$9000</t>
+            <t xml:space="preserve">HKD$631200</t>
           </r>
         </is>
       </c>
       <c r="H23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
@@ -1970,14 +1970,14 @@
       <c r="K23" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">03/03/2020</t>
           </r>
         </is>
       </c>
       <c r="L23" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -1989,56 +1989,56 @@
       <c r="B24" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Meituan DianPing</t>
+            <t xml:space="preserve">Mapletree North Asia Commercial Trust</t>
           </r>
         </is>
       </c>
       <c r="C24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3690.HK</t>
+            <t xml:space="preserve">RW0U.SI</t>
           </r>
         </is>
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKEX</t>
+            <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
       <c r="E24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">24000</t>
           </r>
         </is>
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$300</t>
+            <t xml:space="preserve">SGD$1.02</t>
           </r>
         </is>
       </c>
       <c r="G24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$6000</t>
+            <t xml:space="preserve">SGD$24480</t>
           </r>
         </is>
       </c>
       <c r="H24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
       <c r="I24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">admin</t>
+            <t xml:space="preserve">choonann</t>
           </r>
         </is>
       </c>
@@ -2046,14 +2046,14 @@
       <c r="K24" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">04/04/2020</t>
           </r>
         </is>
       </c>
       <c r="L24" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2065,42 +2065,42 @@
       <c r="B25" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Meituan DianPing</t>
+            <t xml:space="preserve">Mapletree North Asia Commercial Trust</t>
           </r>
         </is>
       </c>
       <c r="C25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3690.HK</t>
+            <t xml:space="preserve">RW0U.SI</t>
           </r>
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKEX</t>
+            <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
       <c r="E25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
+            <t xml:space="preserve">24000</t>
           </r>
         </is>
       </c>
       <c r="F25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$200</t>
+            <t xml:space="preserve">SGD$1.02</t>
           </r>
         </is>
       </c>
       <c r="G25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$4000</t>
+            <t xml:space="preserve">SGD$24480</t>
           </r>
         </is>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="I25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">admin</t>
+            <t xml:space="preserve">choonann</t>
           </r>
         </is>
       </c>
@@ -2122,14 +2122,14 @@
       <c r="K25" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">04/04/2020</t>
           </r>
         </is>
       </c>
       <c r="L25" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="B26" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Semiconductor Manufacturing Int'l</t>
+            <t xml:space="preserve">Semiconductor Manufacturing International Corporation</t>
           </r>
         </is>
       </c>
@@ -2162,28 +2162,28 @@
       <c r="E26" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
       <c r="F26" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$22.12</t>
+            <t xml:space="preserve">HKD$26</t>
           </r>
         </is>
       </c>
       <c r="G26" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$2212</t>
+            <t xml:space="preserve">HKD$260000</t>
           </r>
         </is>
       </c>
       <c r="H26" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
@@ -2198,14 +2198,14 @@
       <c r="K26" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">04/04/2020</t>
           </r>
         </is>
       </c>
       <c r="L26" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2217,56 +2217,56 @@
       <c r="B27" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Ping An Insurance</t>
+            <t xml:space="preserve">Alphabet Inc.</t>
           </r>
         </is>
       </c>
       <c r="C27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2318.HK</t>
+            <t xml:space="preserve">GOOG</t>
           </r>
         </is>
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKEX</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
       <c r="E27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">200</t>
+            <t xml:space="preserve">250</t>
           </r>
         </is>
       </c>
       <c r="F27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$96.8</t>
+            <t xml:space="preserve">USD$1545.17</t>
           </r>
         </is>
       </c>
       <c r="G27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$19360</t>
+            <t xml:space="preserve">USD$386292.5</t>
           </r>
         </is>
       </c>
       <c r="H27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
       <c r="I27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">admin</t>
+            <t xml:space="preserve">choonann</t>
           </r>
         </is>
       </c>
@@ -2274,14 +2274,14 @@
       <c r="K27" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">04/04/2020</t>
           </r>
         </is>
       </c>
       <c r="L27" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2293,14 +2293,14 @@
       <c r="B28" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Tencent Holdings</t>
+            <t xml:space="preserve">Semiconductor Manufacturing International Corporation</t>
           </r>
         </is>
       </c>
       <c r="C28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">0700.HK</t>
+            <t xml:space="preserve">0981.HK</t>
           </r>
         </is>
       </c>
@@ -2314,35 +2314,35 @@
       <c r="E28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
       <c r="F28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$550</t>
+            <t xml:space="preserve">HKD$26</t>
           </r>
         </is>
       </c>
       <c r="G28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$55000</t>
+            <t xml:space="preserve">HKD$260000</t>
           </r>
         </is>
       </c>
       <c r="H28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
       <c r="I28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">admin</t>
+            <t xml:space="preserve">choonann</t>
           </r>
         </is>
       </c>
@@ -2350,14 +2350,14 @@
       <c r="K28" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">04/04/2020</t>
           </r>
         </is>
       </c>
       <c r="L28" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2369,49 +2369,49 @@
       <c r="B29" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Parkway Life REIT</t>
+            <t xml:space="preserve">Alphabet Inc.</t>
           </r>
         </is>
       </c>
       <c r="C29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">C2PU.SI</t>
+            <t xml:space="preserve">GOOG</t>
           </r>
         </is>
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGX</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
       <c r="E29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1000</t>
+            <t xml:space="preserve">250</t>
           </r>
         </is>
       </c>
       <c r="F29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$3.88</t>
+            <t xml:space="preserve">USD$1545.17</t>
           </r>
         </is>
       </c>
       <c r="G29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SGD$3880</t>
+            <t xml:space="preserve">USD$386292.5</t>
           </r>
         </is>
       </c>
       <c r="H29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SELL</t>
+            <t xml:space="preserve">BUY</t>
           </r>
         </is>
       </c>
@@ -2426,14 +2426,14 @@
       <c r="K29" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">01/01/2021</t>
+            <t xml:space="preserve">04/04/2020</t>
           </r>
         </is>
       </c>
       <c r="L29" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">testing purpose</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2445,42 +2445,42 @@
       <c r="B30" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">JD.com Inc.</t>
+            <t xml:space="preserve">Frasers Centrepoint Trust</t>
           </r>
         </is>
       </c>
       <c r="C30" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9618.HK</t>
+            <t xml:space="preserve">J69U.SI</t>
           </r>
         </is>
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKEX</t>
+            <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
       <c r="E30" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">900</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
       <c r="F30" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$365</t>
+            <t xml:space="preserve">SGD$2.68</t>
           </r>
         </is>
       </c>
       <c r="G30" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$328500</t>
+            <t xml:space="preserve">SGD$26800</t>
           </r>
         </is>
       </c>
@@ -2502,14 +2502,14 @@
       <c r="K30" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08/01/2021</t>
+            <t xml:space="preserve">05/05/2020</t>
           </r>
         </is>
       </c>
       <c r="L30" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">test</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2521,42 +2521,42 @@
       <c r="B31" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Semiconductor Manufacturing Int'l</t>
+            <t xml:space="preserve">Netflix, Inc.</t>
           </r>
         </is>
       </c>
       <c r="C31" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">0981.HK</t>
+            <t xml:space="preserve">NFLX</t>
           </r>
         </is>
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKEX</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
       <c r="E31" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">500</t>
           </r>
         </is>
       </c>
       <c r="F31" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$25.5</t>
+            <t xml:space="preserve">USD$523.16</t>
           </r>
         </is>
       </c>
       <c r="G31" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">HKD$2550</t>
+            <t xml:space="preserve">USD$261580</t>
           </r>
         </is>
       </c>
@@ -2578,14 +2578,14 @@
       <c r="K31" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08/01/2021</t>
+            <t xml:space="preserve">05/05/2020</t>
           </r>
         </is>
       </c>
       <c r="L31" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">test</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2597,21 +2597,21 @@
       <c r="B32" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Boeing Co.</t>
+            <t xml:space="preserve">Netflix, Inc.</t>
           </r>
         </is>
       </c>
       <c r="C32" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">BA</t>
+            <t xml:space="preserve">NFLX</t>
           </r>
         </is>
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NYSE</t>
+            <t xml:space="preserve">NASDAQ</t>
           </r>
         </is>
       </c>
@@ -2625,14 +2625,14 @@
       <c r="F32" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$289</t>
+            <t xml:space="preserve">USD$523.16</t>
           </r>
         </is>
       </c>
       <c r="G32" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$144500</t>
+            <t xml:space="preserve">USD$261580</t>
           </r>
         </is>
       </c>
@@ -2654,14 +2654,14 @@
       <c r="K32" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08/01/2021</t>
+            <t xml:space="preserve">05/05/2020</t>
           </r>
         </is>
       </c>
       <c r="L32" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">test</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2673,42 +2673,42 @@
       <c r="B33" s="13" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Facebook Inc.</t>
+            <t xml:space="preserve">Frasers Centrepoint Trust</t>
           </r>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">FB</t>
+            <t xml:space="preserve">J69U.SI</t>
           </r>
         </is>
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">NASDAQ</t>
+            <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
       <c r="E33" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">200</t>
+            <t xml:space="preserve">10000</t>
           </r>
         </is>
       </c>
       <c r="F33" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$298.98</t>
+            <t xml:space="preserve">SGD$2.68</t>
           </r>
         </is>
       </c>
       <c r="G33" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">USD$59796</t>
+            <t xml:space="preserve">SGD$26800</t>
           </r>
         </is>
       </c>
@@ -2730,14 +2730,14 @@
       <c r="K33" s="14" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08/01/2021</t>
+            <t xml:space="preserve">05/05/2020</t>
           </r>
         </is>
       </c>
       <c r="L33" s="16" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">test</t>
+            <t xml:space="preserve">massive testing</t>
           </r>
         </is>
       </c>
@@ -2746,95 +2746,3515 @@
     </row>
     <row r="34" customHeight="1" ht="30">
       <c r="A34" s="1" t="inlineStr"/>
-      <c r="B34" s="18" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Capitaland Ltd</t>
-          </r>
-        </is>
-      </c>
-      <c r="C34" s="19" t="inlineStr">
+      <c r="B34" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Sunny Optical Technology (Group) Company Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2382.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$176.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$353960</t>
+          </r>
+        </is>
+      </c>
+      <c r="H34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J34" s="15" t="inlineStr"/>
+      <c r="K34" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">05/05/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L34" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M34" s="17" t="inlineStr"/>
+      <c r="N34" s="1" t="inlineStr"/>
+    </row>
+    <row r="35" customHeight="1" ht="30">
+      <c r="A35" s="1" t="inlineStr"/>
+      <c r="B35" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Sunny Optical Technology (Group) Company Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2382.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$176.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$353960</t>
+          </r>
+        </is>
+      </c>
+      <c r="H35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J35" s="15" t="inlineStr"/>
+      <c r="K35" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">05/05/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L35" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M35" s="17" t="inlineStr"/>
+      <c r="N35" s="1" t="inlineStr"/>
+    </row>
+    <row r="36" customHeight="1" ht="30">
+      <c r="A36" s="1" t="inlineStr"/>
+      <c r="B36" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Meituan</t>
+          </r>
+        </is>
+      </c>
+      <c r="C36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3690.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$301.68</t>
+          </r>
+        </is>
+      </c>
+      <c r="G36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$301680</t>
+          </r>
+        </is>
+      </c>
+      <c r="H36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J36" s="15" t="inlineStr"/>
+      <c r="K36" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/06/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L36" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M36" s="17" t="inlineStr"/>
+      <c r="N36" s="1" t="inlineStr"/>
+    </row>
+    <row r="37" customHeight="1" ht="30">
+      <c r="A37" s="1" t="inlineStr"/>
+      <c r="B37" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Zoom Video Communications, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ZM</t>
+          </r>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">500</t>
+          </r>
+        </is>
+      </c>
+      <c r="F37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$488.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$244490</t>
+          </r>
+        </is>
+      </c>
+      <c r="H37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J37" s="15" t="inlineStr"/>
+      <c r="K37" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/06/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L37" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M37" s="17" t="inlineStr"/>
+      <c r="N37" s="1" t="inlineStr"/>
+    </row>
+    <row r="38" customHeight="1" ht="30">
+      <c r="A38" s="1" t="inlineStr"/>
+      <c r="B38" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Zoom Video Communications, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ZM</t>
+          </r>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">500</t>
+          </r>
+        </is>
+      </c>
+      <c r="F38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$488.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$244490</t>
+          </r>
+        </is>
+      </c>
+      <c r="H38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J38" s="15" t="inlineStr"/>
+      <c r="K38" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/06/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L38" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M38" s="17" t="inlineStr"/>
+      <c r="N38" s="1" t="inlineStr"/>
+    </row>
+    <row r="39" customHeight="1" ht="30">
+      <c r="A39" s="1" t="inlineStr"/>
+      <c r="B39" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CapitaLand Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C39" s="14" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">C31.SI</t>
           </r>
         </is>
       </c>
-      <c r="D34" s="19" t="inlineStr">
+      <c r="D39" s="14" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">SGX</t>
           </r>
         </is>
       </c>
-      <c r="E34" s="19" t="inlineStr">
+      <c r="E39" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F39" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$3.68</t>
+          </r>
+        </is>
+      </c>
+      <c r="G39" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$36800</t>
+          </r>
+        </is>
+      </c>
+      <c r="H39" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I39" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J39" s="15" t="inlineStr"/>
+      <c r="K39" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/06/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L39" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M39" s="17" t="inlineStr"/>
+      <c r="N39" s="1" t="inlineStr"/>
+    </row>
+    <row r="40" customHeight="1" ht="30">
+      <c r="A40" s="1" t="inlineStr"/>
+      <c r="B40" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CapitaLand Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">C31.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$3.68</t>
+          </r>
+        </is>
+      </c>
+      <c r="G40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$36800</t>
+          </r>
+        </is>
+      </c>
+      <c r="H40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J40" s="15" t="inlineStr"/>
+      <c r="K40" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/06/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L40" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M40" s="17" t="inlineStr"/>
+      <c r="N40" s="1" t="inlineStr"/>
+    </row>
+    <row r="41" customHeight="1" ht="30">
+      <c r="A41" s="1" t="inlineStr"/>
+      <c r="B41" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Meituan</t>
+          </r>
+        </is>
+      </c>
+      <c r="C41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3690.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E41" s="14" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">1000</t>
           </r>
         </is>
       </c>
-      <c r="F34" s="19" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SGD$3.68</t>
-          </r>
-        </is>
-      </c>
-      <c r="G34" s="19" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SGD$3680</t>
-          </r>
-        </is>
-      </c>
-      <c r="H34" s="19" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">BUY</t>
-          </r>
-        </is>
-      </c>
-      <c r="I34" s="19" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">choonann</t>
-          </r>
-        </is>
-      </c>
-      <c r="J34" s="20" t="inlineStr"/>
-      <c r="K34" s="19" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">08/01/2021</t>
-          </r>
-        </is>
-      </c>
-      <c r="L34" s="21" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">test</t>
-          </r>
-        </is>
-      </c>
-      <c r="M34" s="22" t="inlineStr"/>
-      <c r="N34" s="1" t="inlineStr"/>
-    </row>
-    <row r="35" customHeight="1" ht="20">
-      <c r="A35" s="1" t="inlineStr"/>
-      <c r="B35" s="1" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr"/>
-      <c r="D35" s="1" t="inlineStr"/>
-      <c r="E35" s="1" t="inlineStr"/>
-      <c r="F35" s="1" t="inlineStr"/>
-      <c r="G35" s="1" t="inlineStr"/>
-      <c r="H35" s="1" t="inlineStr"/>
-      <c r="I35" s="1" t="inlineStr"/>
-      <c r="J35" s="1" t="inlineStr"/>
-      <c r="K35" s="1" t="inlineStr"/>
-      <c r="L35" s="1" t="inlineStr"/>
-      <c r="M35" s="1" t="inlineStr"/>
-      <c r="N35" s="1" t="inlineStr"/>
+      <c r="F41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$301.68</t>
+          </r>
+        </is>
+      </c>
+      <c r="G41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$301680</t>
+          </r>
+        </is>
+      </c>
+      <c r="H41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J41" s="15" t="inlineStr"/>
+      <c r="K41" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06/06/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L41" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M41" s="17" t="inlineStr"/>
+      <c r="N41" s="1" t="inlineStr"/>
+    </row>
+    <row r="42" customHeight="1" ht="30">
+      <c r="A42" s="1" t="inlineStr"/>
+      <c r="B42" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Bank of China Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3988.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$2.82</t>
+          </r>
+        </is>
+      </c>
+      <c r="G42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$84600</t>
+          </r>
+        </is>
+      </c>
+      <c r="H42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J42" s="15" t="inlineStr"/>
+      <c r="K42" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/07/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L42" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M42" s="17" t="inlineStr"/>
+      <c r="N42" s="1" t="inlineStr"/>
+    </row>
+    <row r="43" customHeight="1" ht="30">
+      <c r="A43" s="1" t="inlineStr"/>
+      <c r="B43" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Singapore Airlines Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">C6L.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">20000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$160000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J43" s="15" t="inlineStr"/>
+      <c r="K43" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/07/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L43" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M43" s="17" t="inlineStr"/>
+      <c r="N43" s="1" t="inlineStr"/>
+    </row>
+    <row r="44" customHeight="1" ht="30">
+      <c r="A44" s="1" t="inlineStr"/>
+      <c r="B44" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CrowdStrike Holdings, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CRWD</t>
+          </r>
+        </is>
+      </c>
+      <c r="D44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1200</t>
+          </r>
+        </is>
+      </c>
+      <c r="F44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$188.78</t>
+          </r>
+        </is>
+      </c>
+      <c r="G44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$226536</t>
+          </r>
+        </is>
+      </c>
+      <c r="H44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J44" s="15" t="inlineStr"/>
+      <c r="K44" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/07/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L44" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M44" s="17" t="inlineStr"/>
+      <c r="N44" s="1" t="inlineStr"/>
+    </row>
+    <row r="45" customHeight="1" ht="30">
+      <c r="A45" s="1" t="inlineStr"/>
+      <c r="B45" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Bank of China Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3988.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$2.82</t>
+          </r>
+        </is>
+      </c>
+      <c r="G45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$84600</t>
+          </r>
+        </is>
+      </c>
+      <c r="H45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J45" s="15" t="inlineStr"/>
+      <c r="K45" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/07/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L45" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M45" s="17" t="inlineStr"/>
+      <c r="N45" s="1" t="inlineStr"/>
+    </row>
+    <row r="46" customHeight="1" ht="30">
+      <c r="A46" s="1" t="inlineStr"/>
+      <c r="B46" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CrowdStrike Holdings, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CRWD</t>
+          </r>
+        </is>
+      </c>
+      <c r="D46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1200</t>
+          </r>
+        </is>
+      </c>
+      <c r="F46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$188.78</t>
+          </r>
+        </is>
+      </c>
+      <c r="G46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$226536</t>
+          </r>
+        </is>
+      </c>
+      <c r="H46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J46" s="15" t="inlineStr"/>
+      <c r="K46" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/07/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L46" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M46" s="17" t="inlineStr"/>
+      <c r="N46" s="1" t="inlineStr"/>
+    </row>
+    <row r="47" customHeight="1" ht="30">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Singapore Airlines Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">C6L.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">20000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$160000</t>
+          </r>
+        </is>
+      </c>
+      <c r="H47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J47" s="15" t="inlineStr"/>
+      <c r="K47" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07/07/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L47" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M47" s="17" t="inlineStr"/>
+      <c r="N47" s="1" t="inlineStr"/>
+    </row>
+    <row r="48" customHeight="1" ht="30">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">JD.com, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9618.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$320.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$962940</t>
+          </r>
+        </is>
+      </c>
+      <c r="H48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J48" s="15" t="inlineStr"/>
+      <c r="K48" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">08/08/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L48" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M48" s="17" t="inlineStr"/>
+      <c r="N48" s="1" t="inlineStr"/>
+    </row>
+    <row r="49" customHeight="1" ht="30">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Keppel Corporation Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BN4.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$5.95</t>
+          </r>
+        </is>
+      </c>
+      <c r="G49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$89250</t>
+          </r>
+        </is>
+      </c>
+      <c r="H49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J49" s="15" t="inlineStr"/>
+      <c r="K49" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">08/08/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L49" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M49" s="17" t="inlineStr"/>
+      <c r="N49" s="1" t="inlineStr"/>
+    </row>
+    <row r="50" customHeight="1" ht="30">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">JD.com, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9618.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$320.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$962940</t>
+          </r>
+        </is>
+      </c>
+      <c r="H50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J50" s="15" t="inlineStr"/>
+      <c r="K50" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">08/08/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L50" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M50" s="17" t="inlineStr"/>
+      <c r="N50" s="1" t="inlineStr"/>
+    </row>
+    <row r="51" customHeight="1" ht="30">
+      <c r="A51" s="1" t="inlineStr"/>
+      <c r="B51" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Keppel Corporation Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BN4.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$5.95</t>
+          </r>
+        </is>
+      </c>
+      <c r="G51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$89250</t>
+          </r>
+        </is>
+      </c>
+      <c r="H51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J51" s="15" t="inlineStr"/>
+      <c r="K51" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">08/08/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L51" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M51" s="17" t="inlineStr"/>
+      <c r="N51" s="1" t="inlineStr"/>
+    </row>
+    <row r="52" customHeight="1" ht="30">
+      <c r="A52" s="1" t="inlineStr"/>
+      <c r="B52" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Mastercard Incorporated</t>
+          </r>
+        </is>
+      </c>
+      <c r="C52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$325.61</t>
+          </r>
+        </is>
+      </c>
+      <c r="G52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$325610</t>
+          </r>
+        </is>
+      </c>
+      <c r="H52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J52" s="15" t="inlineStr"/>
+      <c r="K52" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">08/08/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L52" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M52" s="17" t="inlineStr"/>
+      <c r="N52" s="1" t="inlineStr"/>
+    </row>
+    <row r="53" customHeight="1" ht="30">
+      <c r="A53" s="1" t="inlineStr"/>
+      <c r="B53" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Mastercard Incorporated</t>
+          </r>
+        </is>
+      </c>
+      <c r="C53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MA</t>
+          </r>
+        </is>
+      </c>
+      <c r="D53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$325.61</t>
+          </r>
+        </is>
+      </c>
+      <c r="G53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$325610</t>
+          </r>
+        </is>
+      </c>
+      <c r="H53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J53" s="15" t="inlineStr"/>
+      <c r="K53" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">08/08/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L53" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M53" s="17" t="inlineStr"/>
+      <c r="N53" s="1" t="inlineStr"/>
+    </row>
+    <row r="54" customHeight="1" ht="30">
+      <c r="A54" s="1" t="inlineStr"/>
+      <c r="B54" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Singapore Telecommunications Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Z74.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$2.55</t>
+          </r>
+        </is>
+      </c>
+      <c r="G54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$76500</t>
+          </r>
+        </is>
+      </c>
+      <c r="H54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J54" s="15" t="inlineStr"/>
+      <c r="K54" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">09/09/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L54" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M54" s="17" t="inlineStr"/>
+      <c r="N54" s="1" t="inlineStr"/>
+    </row>
+    <row r="55" customHeight="1" ht="30">
+      <c r="A55" s="1" t="inlineStr"/>
+      <c r="B55" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Square, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="D55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$240.45</t>
+          </r>
+        </is>
+      </c>
+      <c r="G55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$240450</t>
+          </r>
+        </is>
+      </c>
+      <c r="H55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J55" s="15" t="inlineStr"/>
+      <c r="K55" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">09/09/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L55" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M55" s="17" t="inlineStr"/>
+      <c r="N55" s="1" t="inlineStr"/>
+    </row>
+    <row r="56" customHeight="1" ht="30">
+      <c r="A56" s="1" t="inlineStr"/>
+      <c r="B56" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Square, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="D56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$240.45</t>
+          </r>
+        </is>
+      </c>
+      <c r="G56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$240450</t>
+          </r>
+        </is>
+      </c>
+      <c r="H56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J56" s="15" t="inlineStr"/>
+      <c r="K56" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">09/09/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L56" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M56" s="17" t="inlineStr"/>
+      <c r="N56" s="1" t="inlineStr"/>
+    </row>
+    <row r="57" customHeight="1" ht="30">
+      <c r="A57" s="1" t="inlineStr"/>
+      <c r="B57" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">JD Health International Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6618.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$150.61</t>
+          </r>
+        </is>
+      </c>
+      <c r="G57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$301220</t>
+          </r>
+        </is>
+      </c>
+      <c r="H57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J57" s="15" t="inlineStr"/>
+      <c r="K57" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">09/09/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L57" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M57" s="17" t="inlineStr"/>
+      <c r="N57" s="1" t="inlineStr"/>
+    </row>
+    <row r="58" customHeight="1" ht="30">
+      <c r="A58" s="1" t="inlineStr"/>
+      <c r="B58" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">JD Health International Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6618.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$150.61</t>
+          </r>
+        </is>
+      </c>
+      <c r="G58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$301220</t>
+          </r>
+        </is>
+      </c>
+      <c r="H58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J58" s="15" t="inlineStr"/>
+      <c r="K58" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">09/09/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L58" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M58" s="17" t="inlineStr"/>
+      <c r="N58" s="1" t="inlineStr"/>
+    </row>
+    <row r="59" customHeight="1" ht="30">
+      <c r="A59" s="1" t="inlineStr"/>
+      <c r="B59" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Singapore Telecommunications Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Z74.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$2.55</t>
+          </r>
+        </is>
+      </c>
+      <c r="G59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$76500</t>
+          </r>
+        </is>
+      </c>
+      <c r="H59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J59" s="15" t="inlineStr"/>
+      <c r="K59" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">09/09/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L59" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M59" s="17" t="inlineStr"/>
+      <c r="N59" s="1" t="inlineStr"/>
+    </row>
+    <row r="60" customHeight="1" ht="30">
+      <c r="A60" s="1" t="inlineStr"/>
+      <c r="B60" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">The Coca-Cola Company</t>
+          </r>
+        </is>
+      </c>
+      <c r="C60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">KO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$54.27</t>
+          </r>
+        </is>
+      </c>
+      <c r="G60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$108540</t>
+          </r>
+        </is>
+      </c>
+      <c r="H60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J60" s="15" t="inlineStr"/>
+      <c r="K60" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/10/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L60" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M60" s="17" t="inlineStr"/>
+      <c r="N60" s="1" t="inlineStr"/>
+    </row>
+    <row r="61" customHeight="1" ht="30">
+      <c r="A61" s="1" t="inlineStr"/>
+      <c r="B61" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Xiaomi Corporation</t>
+          </r>
+        </is>
+      </c>
+      <c r="C61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1810.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$34.15</t>
+          </r>
+        </is>
+      </c>
+      <c r="G61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$34150</t>
+          </r>
+        </is>
+      </c>
+      <c r="H61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J61" s="15" t="inlineStr"/>
+      <c r="K61" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/10/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L61" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M61" s="17" t="inlineStr"/>
+      <c r="N61" s="1" t="inlineStr"/>
+    </row>
+    <row r="62" customHeight="1" ht="30">
+      <c r="A62" s="1" t="inlineStr"/>
+      <c r="B62" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NetLink NBN Trust</t>
+          </r>
+        </is>
+      </c>
+      <c r="C62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CJLU.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$.91</t>
+          </r>
+        </is>
+      </c>
+      <c r="G62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$27300</t>
+          </r>
+        </is>
+      </c>
+      <c r="H62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J62" s="15" t="inlineStr"/>
+      <c r="K62" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/10/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L62" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M62" s="17" t="inlineStr"/>
+      <c r="N62" s="1" t="inlineStr"/>
+    </row>
+    <row r="63" customHeight="1" ht="30">
+      <c r="A63" s="1" t="inlineStr"/>
+      <c r="B63" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Xiaomi Corporation</t>
+          </r>
+        </is>
+      </c>
+      <c r="C63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1810.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$34.15</t>
+          </r>
+        </is>
+      </c>
+      <c r="G63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$34150</t>
+          </r>
+        </is>
+      </c>
+      <c r="H63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J63" s="15" t="inlineStr"/>
+      <c r="K63" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/10/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L63" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M63" s="17" t="inlineStr"/>
+      <c r="N63" s="1" t="inlineStr"/>
+    </row>
+    <row r="64" customHeight="1" ht="30">
+      <c r="A64" s="1" t="inlineStr"/>
+      <c r="B64" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">The Coca-Cola Company</t>
+          </r>
+        </is>
+      </c>
+      <c r="C64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">KO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$54.27</t>
+          </r>
+        </is>
+      </c>
+      <c r="G64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$108540</t>
+          </r>
+        </is>
+      </c>
+      <c r="H64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J64" s="15" t="inlineStr"/>
+      <c r="K64" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/10/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L64" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M64" s="17" t="inlineStr"/>
+      <c r="N64" s="1" t="inlineStr"/>
+    </row>
+    <row r="65" customHeight="1" ht="30">
+      <c r="A65" s="1" t="inlineStr"/>
+      <c r="B65" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NetLink NBN Trust</t>
+          </r>
+        </is>
+      </c>
+      <c r="C65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CJLU.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$.91</t>
+          </r>
+        </is>
+      </c>
+      <c r="G65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$27300</t>
+          </r>
+        </is>
+      </c>
+      <c r="H65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J65" s="15" t="inlineStr"/>
+      <c r="K65" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/10/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L65" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M65" s="17" t="inlineStr"/>
+      <c r="N65" s="1" t="inlineStr"/>
+    </row>
+    <row r="66" customHeight="1" ht="30">
+      <c r="A66" s="1" t="inlineStr"/>
+      <c r="B66" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Tracker Fund of Hong Kong</t>
+          </r>
+        </is>
+      </c>
+      <c r="C66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2800.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$27.84</t>
+          </r>
+        </is>
+      </c>
+      <c r="G66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$55680</t>
+          </r>
+        </is>
+      </c>
+      <c r="H66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J66" s="15" t="inlineStr"/>
+      <c r="K66" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/11/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L66" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M66" s="17" t="inlineStr"/>
+      <c r="N66" s="1" t="inlineStr"/>
+    </row>
+    <row r="67" customHeight="1" ht="30">
+      <c r="A67" s="1" t="inlineStr"/>
+      <c r="B67" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Tracker Fund of Hong Kong</t>
+          </r>
+        </is>
+      </c>
+      <c r="C67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2800.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$27.84</t>
+          </r>
+        </is>
+      </c>
+      <c r="G67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$55680</t>
+          </r>
+        </is>
+      </c>
+      <c r="H67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J67" s="15" t="inlineStr"/>
+      <c r="K67" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/11/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L67" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M67" s="17" t="inlineStr"/>
+      <c r="N67" s="1" t="inlineStr"/>
+    </row>
+    <row r="68" customHeight="1" ht="30">
+      <c r="A68" s="1" t="inlineStr"/>
+      <c r="B68" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Pinduoduo Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">PDD</t>
+          </r>
+        </is>
+      </c>
+      <c r="D68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$143.56</t>
+          </r>
+        </is>
+      </c>
+      <c r="G68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$143560</t>
+          </r>
+        </is>
+      </c>
+      <c r="H68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J68" s="15" t="inlineStr"/>
+      <c r="K68" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/11/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L68" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M68" s="17" t="inlineStr"/>
+      <c r="N68" s="1" t="inlineStr"/>
+    </row>
+    <row r="69" customHeight="1" ht="30">
+      <c r="A69" s="1" t="inlineStr"/>
+      <c r="B69" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Pinduoduo Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">PDD</t>
+          </r>
+        </is>
+      </c>
+      <c r="D69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$143.56</t>
+          </r>
+        </is>
+      </c>
+      <c r="G69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$143560</t>
+          </r>
+        </is>
+      </c>
+      <c r="H69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J69" s="15" t="inlineStr"/>
+      <c r="K69" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/11/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L69" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M69" s="17" t="inlineStr"/>
+      <c r="N69" s="1" t="inlineStr"/>
+    </row>
+    <row r="70" customHeight="1" ht="30">
+      <c r="A70" s="1" t="inlineStr"/>
+      <c r="B70" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DBS Group Holdings Ltd</t>
+          </r>
+        </is>
+      </c>
+      <c r="C70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">D05.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$22.68</t>
+          </r>
+        </is>
+      </c>
+      <c r="G70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$113400</t>
+          </r>
+        </is>
+      </c>
+      <c r="H70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J70" s="15" t="inlineStr"/>
+      <c r="K70" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/11/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L70" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M70" s="17" t="inlineStr"/>
+      <c r="N70" s="1" t="inlineStr"/>
+    </row>
+    <row r="71" customHeight="1" ht="30">
+      <c r="A71" s="1" t="inlineStr"/>
+      <c r="B71" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DBS Group Holdings Ltd</t>
+          </r>
+        </is>
+      </c>
+      <c r="C71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">D05.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">5000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$22.68</t>
+          </r>
+        </is>
+      </c>
+      <c r="G71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$113400</t>
+          </r>
+        </is>
+      </c>
+      <c r="H71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J71" s="15" t="inlineStr"/>
+      <c r="K71" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/11/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L71" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M71" s="17" t="inlineStr"/>
+      <c r="N71" s="1" t="inlineStr"/>
+    </row>
+    <row r="72" customHeight="1" ht="30">
+      <c r="A72" s="1" t="inlineStr"/>
+      <c r="B72" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">iShares Hang Seng TECH ETF</t>
+          </r>
+        </is>
+      </c>
+      <c r="C72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3067.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$15.8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$31600</t>
+          </r>
+        </is>
+      </c>
+      <c r="H72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J72" s="15" t="inlineStr"/>
+      <c r="K72" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12/12/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L72" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M72" s="17" t="inlineStr"/>
+      <c r="N72" s="1" t="inlineStr"/>
+    </row>
+    <row r="73" customHeight="1" ht="30">
+      <c r="A73" s="1" t="inlineStr"/>
+      <c r="B73" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">iShares Hang Seng TECH ETF</t>
+          </r>
+        </is>
+      </c>
+      <c r="C73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3067.HK</t>
+          </r>
+        </is>
+      </c>
+      <c r="D73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKEX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$15.8</t>
+          </r>
+        </is>
+      </c>
+      <c r="G73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">HKD$31600</t>
+          </r>
+        </is>
+      </c>
+      <c r="H73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J73" s="15" t="inlineStr"/>
+      <c r="K73" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12/12/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L73" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M73" s="17" t="inlineStr"/>
+      <c r="N73" s="1" t="inlineStr"/>
+    </row>
+    <row r="74" customHeight="1" ht="30">
+      <c r="A74" s="1" t="inlineStr"/>
+      <c r="B74" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Oversea-Chinese Banking Corporation Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">O39.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$8.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$89800</t>
+          </r>
+        </is>
+      </c>
+      <c r="H74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J74" s="15" t="inlineStr"/>
+      <c r="K74" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12/12/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L74" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M74" s="17" t="inlineStr"/>
+      <c r="N74" s="1" t="inlineStr"/>
+    </row>
+    <row r="75" customHeight="1" ht="30">
+      <c r="A75" s="1" t="inlineStr"/>
+      <c r="B75" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Wells Fargo &amp; Company</t>
+          </r>
+        </is>
+      </c>
+      <c r="C75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">WFC</t>
+          </r>
+        </is>
+      </c>
+      <c r="D75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$29.78</t>
+          </r>
+        </is>
+      </c>
+      <c r="G75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$59560</t>
+          </r>
+        </is>
+      </c>
+      <c r="H75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J75" s="15" t="inlineStr"/>
+      <c r="K75" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12/12/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L75" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M75" s="17" t="inlineStr"/>
+      <c r="N75" s="1" t="inlineStr"/>
+    </row>
+    <row r="76" customHeight="1" ht="30">
+      <c r="A76" s="1" t="inlineStr"/>
+      <c r="B76" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Wells Fargo &amp; Company</t>
+          </r>
+        </is>
+      </c>
+      <c r="C76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">WFC</t>
+          </r>
+        </is>
+      </c>
+      <c r="D76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NYSE</t>
+          </r>
+        </is>
+      </c>
+      <c r="E76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$29.78</t>
+          </r>
+        </is>
+      </c>
+      <c r="G76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$59560</t>
+          </r>
+        </is>
+      </c>
+      <c r="H76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J76" s="15" t="inlineStr"/>
+      <c r="K76" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12/12/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L76" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M76" s="17" t="inlineStr"/>
+      <c r="N76" s="1" t="inlineStr"/>
+    </row>
+    <row r="77" customHeight="1" ht="30">
+      <c r="A77" s="1" t="inlineStr"/>
+      <c r="B77" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Oversea-Chinese Banking Corporation Limited</t>
+          </r>
+        </is>
+      </c>
+      <c r="C77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">O39.SI</t>
+          </r>
+        </is>
+      </c>
+      <c r="D77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGX</t>
+          </r>
+        </is>
+      </c>
+      <c r="E77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$8.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SGD$89800</t>
+          </r>
+        </is>
+      </c>
+      <c r="H77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">BUY</t>
+          </r>
+        </is>
+      </c>
+      <c r="I77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J77" s="15" t="inlineStr"/>
+      <c r="K77" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12/12/2020</t>
+          </r>
+        </is>
+      </c>
+      <c r="L77" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M77" s="17" t="inlineStr"/>
+      <c r="N77" s="1" t="inlineStr"/>
+    </row>
+    <row r="78" customHeight="1" ht="30">
+      <c r="A78" s="1" t="inlineStr"/>
+      <c r="B78" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Amazon.com, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">AMZN</t>
+          </r>
+        </is>
+      </c>
+      <c r="D78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">100</t>
+          </r>
+        </is>
+      </c>
+      <c r="F78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$3158.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$315898</t>
+          </r>
+        </is>
+      </c>
+      <c r="H78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SELL</t>
+          </r>
+        </is>
+      </c>
+      <c r="I78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J78" s="15" t="inlineStr"/>
+      <c r="K78" s="14" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10/01/2021</t>
+          </r>
+        </is>
+      </c>
+      <c r="L78" s="16" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M78" s="17" t="inlineStr"/>
+      <c r="N78" s="1" t="inlineStr"/>
+    </row>
+    <row r="79" customHeight="1" ht="30">
+      <c r="A79" s="1" t="inlineStr"/>
+      <c r="B79" s="18" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Amazon.com, Inc.</t>
+          </r>
+        </is>
+      </c>
+      <c r="C79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">AMZN</t>
+          </r>
+        </is>
+      </c>
+      <c r="D79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NASDAQ</t>
+          </r>
+        </is>
+      </c>
+      <c r="E79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">100</t>
+          </r>
+        </is>
+      </c>
+      <c r="F79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$3158.98</t>
+          </r>
+        </is>
+      </c>
+      <c r="G79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">USD$315898</t>
+          </r>
+        </is>
+      </c>
+      <c r="H79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SELL</t>
+          </r>
+        </is>
+      </c>
+      <c r="I79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">choonann</t>
+          </r>
+        </is>
+      </c>
+      <c r="J79" s="20" t="inlineStr"/>
+      <c r="K79" s="19" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11/01/2021</t>
+          </r>
+        </is>
+      </c>
+      <c r="L79" s="21" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">massive testing</t>
+          </r>
+        </is>
+      </c>
+      <c r="M79" s="22" t="inlineStr"/>
+      <c r="N79" s="1" t="inlineStr"/>
+    </row>
+    <row r="80" customHeight="1" ht="20">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" s="1" t="inlineStr"/>
+      <c r="C80" s="1" t="inlineStr"/>
+      <c r="D80" s="1" t="inlineStr"/>
+      <c r="E80" s="1" t="inlineStr"/>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="1" t="inlineStr"/>
+      <c r="I80" s="1" t="inlineStr"/>
+      <c r="J80" s="1" t="inlineStr"/>
+      <c r="K80" s="1" t="inlineStr"/>
+      <c r="L80" s="1" t="inlineStr"/>
+      <c r="M80" s="1" t="inlineStr"/>
+      <c r="N80" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2901,6 +6321,96 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="L34:M34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>
